--- a/Excel - Les Compétences de base/1 Les ABCs d'Excel/V05-Poignée de remplissage.xlsx
+++ b/Excel - Les Compétences de base/1 Les ABCs d'Excel/V05-Poignée de remplissage.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nic\Documents\Freelance Training\Maquarie Uni\MOOCS\Exercise Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Formation-Microsoft-Excel\Excel - Les Compétences de base\1 Les ABCs d'Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58BF62D-418B-4624-8EA4-D5541CA656A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="6651"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +30,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Day</t>
-  </si>
-  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -53,24 +51,9 @@
     <t>R1001</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>Shift No</t>
-  </si>
-  <si>
     <t>Rajesh</t>
   </si>
   <si>
-    <t>Cumulative Hrs</t>
-  </si>
-  <si>
     <t>Yi</t>
   </si>
   <si>
@@ -83,15 +66,9 @@
     <t>White</t>
   </si>
   <si>
-    <t>Branch</t>
-  </si>
-  <si>
     <t>Sydney</t>
   </si>
   <si>
-    <t>Record ID</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -99,18 +76,42 @@
   </si>
   <si>
     <t>Help Desk Roster</t>
+  </si>
+  <si>
+    <t>Agence</t>
+  </si>
+  <si>
+    <t>No d'enregistrement</t>
+  </si>
+  <si>
+    <t>Jour</t>
+  </si>
+  <si>
+    <t>Heures</t>
+  </si>
+  <si>
+    <t>No Shift</t>
+  </si>
+  <si>
+    <t>Heures Cumulées</t>
+  </si>
+  <si>
+    <t>Prénom</t>
+  </si>
+  <si>
+    <t>Nom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +157,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -182,16 +189,16 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -200,21 +207,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="60% - Accent1 2" xfId="6"/>
-    <cellStyle name="Comma 2" xfId="1"/>
-    <cellStyle name="Currency 2" xfId="2"/>
-    <cellStyle name="Currency 3" xfId="4"/>
+    <cellStyle name="60% - Accent1 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Currency 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Percent 3" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Percent 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -230,7 +234,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -525,77 +529,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.23046875" style="4"/>
-    <col min="2" max="4" width="12.23046875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.69140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.23046875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.53515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.23046875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="26.921875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.921875" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.23046875" style="4"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="8.6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:11" ht="15.9" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="8.5500000000000007" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>42856</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5">
-        <v>42856</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="E4" s="1">
         <v>8</v>
@@ -603,258 +608,199 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="G5" s="1">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="H6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="4">
-        <v>16</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="H6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="H7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="K34" s="5"/>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="K34" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="75" verticalDpi="75" r:id="rId1"/>
 </worksheet>
